--- a/Assets/01Table/DataTable.xlsx
+++ b/Assets/01Table/DataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksuw\Desktop\UnityProject\LuckyDeffense\Assets\01Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7773A431-DDBB-465F-B081-DC09F59E445C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{318260A0-7485-4F54-97A1-DCE8DF35F02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{BEFBDC0E-DFDF-43AD-B3DF-DABD8844AFDA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12816" firstSheet="1" activeTab="7" xr2:uid="{BEFBDC0E-DFDF-43AD-B3DF-DABD8844AFDA}"/>
   </bookViews>
   <sheets>
     <sheet name="UserData" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,10 @@
     <sheet name="MonsterData" sheetId="2" r:id="rId3"/>
     <sheet name="WaveData" sheetId="4" r:id="rId4"/>
     <sheet name="UnitUpgradeData" sheetId="5" r:id="rId5"/>
-    <sheet name="UnitSpawnProbability" sheetId="6" r:id="rId6"/>
+    <sheet name="UnitSpawnData" sheetId="7" r:id="rId6"/>
+    <sheet name="UnitSpawnProbability" sheetId="6" r:id="rId7"/>
+    <sheet name="SkillData" sheetId="8" r:id="rId8"/>
+    <sheet name="ProjectileData" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="103">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>monsterID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>clearMoney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WAVE 01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,10 +157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Animations/Dog</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,14 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BowMan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SwordMan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Animations/SwordMan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,14 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ratKing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dogKing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WAVE 20</t>
   </si>
   <si>
@@ -314,6 +289,142 @@
   </si>
   <si>
     <t>Sprite/unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spawnRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/hero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startMoney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations/Noung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강력한 발차기!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mpCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillID1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillID2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillID3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manaSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 강력한 발차기!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations/GunMan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활잽이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검잽이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총잽이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쥐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거대쥐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>들개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거대 들개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래골렘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations/Golem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations/Slime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임미사일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spriteSrc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Arrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/jual</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -718,10 +829,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4608D715-15AC-4144-BEB6-96666BEFC447}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -729,15 +840,17 @@
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="7" max="7" width="11.3984375" customWidth="1"/>
     <col min="8" max="8" width="12.09765625" customWidth="1"/>
-    <col min="9" max="9" width="20.19921875" customWidth="1"/>
-    <col min="10" max="10" width="11.69921875" customWidth="1"/>
-    <col min="11" max="11" width="11.59765625" customWidth="1"/>
-    <col min="12" max="12" width="11.3984375" customWidth="1"/>
-    <col min="13" max="13" width="10.59765625" customWidth="1"/>
-    <col min="14" max="14" width="10.796875" customWidth="1"/>
+    <col min="9" max="9" width="7.8984375" customWidth="1"/>
+    <col min="10" max="10" width="20.19921875" customWidth="1"/>
+    <col min="11" max="11" width="11.69921875" customWidth="1"/>
+    <col min="12" max="12" width="11.59765625" customWidth="1"/>
+    <col min="13" max="13" width="11.3984375" customWidth="1"/>
+    <col min="14" max="14" width="10.59765625" customWidth="1"/>
+    <col min="15" max="15" width="10.796875" customWidth="1"/>
+    <col min="20" max="20" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -760,113 +873,394 @@
         <v>10</v>
       </c>
       <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" t="s">
-        <v>45</v>
-      </c>
       <c r="N1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+      <c r="O1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2">
         <v>8</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>4</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>2</v>
       </c>
-      <c r="M2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2">
+      <c r="N2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3">
+        <v>25</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>0.75</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <v>1.75</v>
+      </c>
+      <c r="N4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>200</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5">
+        <v>40</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>0.85</v>
+      </c>
+      <c r="N5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1000000</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>201</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6">
+        <v>250</v>
+      </c>
+      <c r="L6">
+        <v>0.7</v>
+      </c>
+      <c r="M6">
+        <v>0.75</v>
+      </c>
+      <c r="N6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>300</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7">
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>43</v>
       </c>
-      <c r="J3">
-        <v>25</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>0.65</v>
-      </c>
-      <c r="M3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3">
+      <c r="O7">
         <v>1</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1000002</v>
       </c>
     </row>
   </sheetData>
@@ -877,25 +1271,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED52256-847B-4A43-B7B6-4169EA64EE52}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="7" max="7" width="11.3984375" customWidth="1"/>
-    <col min="8" max="8" width="7.8984375" customWidth="1"/>
-    <col min="9" max="9" width="15.69921875" customWidth="1"/>
-    <col min="10" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="11" width="12.296875" customWidth="1"/>
-    <col min="12" max="12" width="11.19921875" customWidth="1"/>
-    <col min="13" max="13" width="10.296875" customWidth="1"/>
-    <col min="14" max="14" width="16.3984375" customWidth="1"/>
+    <col min="8" max="9" width="7.8984375" customWidth="1"/>
+    <col min="10" max="10" width="15.69921875" customWidth="1"/>
+    <col min="11" max="11" width="9.5" customWidth="1"/>
+    <col min="12" max="12" width="12.296875" customWidth="1"/>
+    <col min="13" max="13" width="11.19921875" customWidth="1"/>
+    <col min="14" max="14" width="10.296875" customWidth="1"/>
+    <col min="15" max="15" width="10.796875" customWidth="1"/>
+    <col min="16" max="16" width="11.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -918,33 +1313,48 @@
         <v>10</v>
       </c>
       <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" t="s">
-        <v>45</v>
-      </c>
       <c r="N1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+      <c r="O1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -959,16 +1369,16 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -976,19 +1386,34 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -1003,16 +1428,16 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H3">
         <v>3.3</v>
       </c>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1020,43 +1445,58 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.2000000000000002</v>
+        <v>1.4</v>
       </c>
       <c r="H4">
         <v>3.6</v>
       </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1064,43 +1504,58 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.2999999999999998</v>
+        <v>1.4</v>
       </c>
       <c r="H5">
         <v>3.9</v>
       </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1108,43 +1563,58 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1004</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H6">
         <v>4.2</v>
       </c>
-      <c r="I6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1152,43 +1622,58 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1005</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="C7">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H7">
         <v>4.5</v>
       </c>
-      <c r="I7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1196,43 +1681,58 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1006</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="C8">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H8">
         <v>4.8</v>
       </c>
-      <c r="I8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1240,43 +1740,58 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1007</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="C9">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H9">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1284,43 +1799,58 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1008</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H10">
         <v>5.4</v>
       </c>
-      <c r="I10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1328,19 +1858,34 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" t="s">
-        <v>49</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1009</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C11">
         <v>3000</v>
@@ -1355,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H11">
         <v>100</v>
       </c>
-      <c r="I11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1372,19 +1917,34 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11" t="s">
-        <v>49</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1010</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="C12">
         <v>200</v>
@@ -1404,11 +1964,11 @@
       <c r="H12">
         <v>10</v>
       </c>
-      <c r="I12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1416,28 +1976,43 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" t="s">
-        <v>49</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1011</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="C13">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1448,11 +2023,11 @@
       <c r="H13">
         <v>12.4</v>
       </c>
-      <c r="I13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1460,28 +2035,43 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13" t="s">
-        <v>49</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1012</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="C14">
-        <v>260</v>
+        <v>420</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>260</v>
+        <v>420</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1492,11 +2082,11 @@
       <c r="H14">
         <v>14.8</v>
       </c>
-      <c r="I14" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1504,28 +2094,43 @@
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14" t="s">
-        <v>49</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1013</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="C15">
-        <v>290</v>
+        <v>560</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>290</v>
+        <v>560</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1536,11 +2141,11 @@
       <c r="H15">
         <v>17.2</v>
       </c>
-      <c r="I15" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>35</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1548,28 +2153,43 @@
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15" t="s">
-        <v>49</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1014</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="C16">
-        <v>320</v>
+        <v>720</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>320</v>
+        <v>720</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1580,11 +2200,11 @@
       <c r="H16">
         <v>19.600000000000001</v>
       </c>
-      <c r="I16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1592,28 +2212,43 @@
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16" t="s">
-        <v>49</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1015</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="C17">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1624,11 +2259,11 @@
       <c r="H17">
         <v>22</v>
       </c>
-      <c r="I17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>35</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1636,28 +2271,43 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17" t="s">
-        <v>49</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>44</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1016</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="C18">
-        <v>380</v>
+        <v>1100</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>380</v>
+        <v>1100</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1668,11 +2318,11 @@
       <c r="H18">
         <v>24.4</v>
       </c>
-      <c r="I18" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>35</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1680,28 +2330,43 @@
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18" t="s">
-        <v>49</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>44</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1017</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="C19">
-        <v>410</v>
+        <v>1320</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>410</v>
+        <v>1320</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1712,11 +2377,11 @@
       <c r="H19">
         <v>26.8</v>
       </c>
-      <c r="I19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>35</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1724,28 +2389,43 @@
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19" t="s">
-        <v>49</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1018</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="C20">
-        <v>440</v>
+        <v>1560</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>440</v>
+        <v>1560</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1756,11 +2436,11 @@
       <c r="H20">
         <v>29.2</v>
       </c>
-      <c r="I20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>35</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1768,19 +2448,34 @@
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20" t="s">
-        <v>49</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>44</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1019</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C21">
         <v>10000</v>
@@ -1800,11 +2495,11 @@
       <c r="H21">
         <v>250</v>
       </c>
-      <c r="I21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
+      <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s">
+        <v>35</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1812,10 +2507,25 @@
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21" t="s">
-        <v>49</v>
-      </c>
-      <c r="N21">
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>44</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
         <v>0</v>
       </c>
     </row>
@@ -1830,7 +2540,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1849,16 +2559,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
       <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1866,7 +2576,7 @@
         <v>10000</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>1000</v>
@@ -1878,7 +2588,7 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -1886,7 +2596,7 @@
         <v>10001</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>1001</v>
@@ -1898,7 +2608,7 @@
         <v>45</v>
       </c>
       <c r="F3">
-        <v>0.49</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -1906,7 +2616,7 @@
         <v>10002</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>1002</v>
@@ -1918,7 +2628,7 @@
         <v>70</v>
       </c>
       <c r="F4">
-        <v>0.48</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -1926,10 +2636,10 @@
         <v>10003</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="D5">
         <v>35</v>
@@ -1938,7 +2648,7 @@
         <v>95</v>
       </c>
       <c r="F5">
-        <v>0.47</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -1946,7 +2656,7 @@
         <v>10004</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>1004</v>
@@ -1958,7 +2668,7 @@
         <v>120</v>
       </c>
       <c r="F6">
-        <v>0.46</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -1966,7 +2676,7 @@
         <v>10005</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>1005</v>
@@ -1978,7 +2688,7 @@
         <v>145</v>
       </c>
       <c r="F7">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -1986,7 +2696,7 @@
         <v>10006</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>1006</v>
@@ -1998,7 +2708,7 @@
         <v>170</v>
       </c>
       <c r="F8">
-        <v>0.44</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -2006,7 +2716,7 @@
         <v>10007</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>1007</v>
@@ -2018,7 +2728,7 @@
         <v>195</v>
       </c>
       <c r="F9">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -2026,7 +2736,7 @@
         <v>10008</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>1008</v>
@@ -2038,7 +2748,7 @@
         <v>220</v>
       </c>
       <c r="F10">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -2046,7 +2756,7 @@
         <v>10009</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>1009</v>
@@ -2058,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -2066,7 +2776,7 @@
         <v>10010</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>1010</v>
@@ -2078,7 +2788,7 @@
         <v>270</v>
       </c>
       <c r="F12">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -2086,7 +2796,7 @@
         <v>10011</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>1011</v>
@@ -2098,7 +2808,7 @@
         <v>295</v>
       </c>
       <c r="F13">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
@@ -2106,7 +2816,7 @@
         <v>10012</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>1012</v>
@@ -2118,7 +2828,7 @@
         <v>320</v>
       </c>
       <c r="F14">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
@@ -2126,7 +2836,7 @@
         <v>10013</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>1013</v>
@@ -2138,7 +2848,7 @@
         <v>345</v>
       </c>
       <c r="F15">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
@@ -2146,7 +2856,7 @@
         <v>10014</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>1014</v>
@@ -2158,7 +2868,7 @@
         <v>370</v>
       </c>
       <c r="F16">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -2166,7 +2876,7 @@
         <v>10015</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>1015</v>
@@ -2186,7 +2896,7 @@
         <v>10016</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>1016</v>
@@ -2198,7 +2908,7 @@
         <v>420</v>
       </c>
       <c r="F18">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
@@ -2206,7 +2916,7 @@
         <v>10017</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>1017</v>
@@ -2218,7 +2928,7 @@
         <v>445</v>
       </c>
       <c r="F19">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
@@ -2226,7 +2936,7 @@
         <v>10018</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>1018</v>
@@ -2238,7 +2948,7 @@
         <v>470</v>
       </c>
       <c r="F20">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -2246,7 +2956,7 @@
         <v>10019</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C21">
         <v>1019</v>
@@ -2258,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -2271,8 +2981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7AF469-AB05-4F2F-B6F4-B7411970AD57}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2287,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -2313,19 +3023,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D2">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -2336,19 +3046,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F3">
         <v>0.16600000000000001</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -2359,19 +3069,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D4">
         <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F4">
         <v>0.33200000000000002</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -2382,19 +3092,19 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D5">
         <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F5">
         <v>0.498</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -2405,19 +3115,19 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D6">
         <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F6">
         <v>0.66400000000000003</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -2428,19 +3138,19 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F7">
         <v>0.83</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -2451,19 +3161,19 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D8">
         <v>150</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F8">
         <v>0.996</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -2474,19 +3184,19 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D9">
         <v>170</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F9">
         <v>1.1619999999999999</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -2497,19 +3207,19 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D10">
         <v>190</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F10">
         <v>1.3280000000000001</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -2520,19 +3230,19 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D11">
         <v>210</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F11">
         <v>1.494</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -2543,19 +3253,19 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D12">
         <v>230</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F12">
         <v>1.66</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -2566,19 +3276,19 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D13">
         <v>250</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F13">
         <v>1.8260000000000001</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -2586,22 +3296,22 @@
         <v>100012</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F14">
         <v>1.992</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -2612,19 +3322,19 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D15">
         <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -2635,19 +3345,19 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D16">
         <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F16">
         <v>0.16600000000000001</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -2658,19 +3368,19 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D17">
         <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F17">
         <v>0.33200000000000002</v>
       </c>
       <c r="G17" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
@@ -2681,19 +3391,19 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D18">
         <v>140</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F18">
         <v>0.498</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
@@ -2704,19 +3414,19 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D19">
         <v>170</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F19">
         <v>0.66400000000000003</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
@@ -2727,19 +3437,19 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D20">
         <v>200</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F20">
         <v>0.83</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
@@ -2750,19 +3460,19 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D21">
         <v>230</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F21">
         <v>0.996</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
@@ -2773,19 +3483,19 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D22">
         <v>260</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F22">
         <v>1.1619999999999999</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
@@ -2796,19 +3506,19 @@
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D23">
         <v>290</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F23">
         <v>1.3280000000000001</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
@@ -2819,19 +3529,19 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D24">
         <v>320</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F24">
         <v>1.494</v>
       </c>
       <c r="G24" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
@@ -2842,19 +3552,19 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D25">
         <v>350</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F25">
         <v>1.66</v>
       </c>
       <c r="G25" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
@@ -2865,19 +3575,19 @@
         <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D26">
         <v>380</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F26">
         <v>1.8260000000000001</v>
       </c>
       <c r="G26" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
@@ -2885,22 +3595,22 @@
         <v>200012</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F27">
         <v>1.992</v>
       </c>
       <c r="G27" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
@@ -2908,22 +3618,22 @@
         <v>300000</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
@@ -2934,19 +3644,19 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D29">
         <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F29">
         <v>0.16600000000000001</v>
       </c>
       <c r="G29" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
@@ -2957,19 +3667,19 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D30">
         <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F30">
         <v>0.33200000000000002</v>
       </c>
       <c r="G30" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
@@ -2980,19 +3690,19 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D31">
         <v>100</v>
       </c>
       <c r="E31" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F31">
         <v>0.498</v>
       </c>
       <c r="G31" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
@@ -3003,19 +3713,19 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D32">
         <v>100</v>
       </c>
       <c r="E32" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F32">
         <v>0.66400000000000003</v>
       </c>
       <c r="G32" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
@@ -3026,19 +3736,19 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D33">
         <v>100</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F33">
         <v>0.83</v>
       </c>
       <c r="G33" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
@@ -3049,19 +3759,19 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D34">
         <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F34">
         <v>0.996</v>
       </c>
       <c r="G34" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
@@ -3072,19 +3782,19 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D35">
         <v>100</v>
       </c>
       <c r="E35" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F35">
         <v>1.1619999999999999</v>
       </c>
       <c r="G35" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
@@ -3095,19 +3805,19 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D36">
         <v>100</v>
       </c>
       <c r="E36" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F36">
         <v>1.3280000000000001</v>
       </c>
       <c r="G36" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
@@ -3118,19 +3828,19 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D37">
         <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F37">
         <v>1.494</v>
       </c>
       <c r="G37" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
@@ -3141,19 +3851,19 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D38">
         <v>100</v>
       </c>
       <c r="E38" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F38">
         <v>1.66</v>
       </c>
       <c r="G38" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -3164,19 +3874,19 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D39">
         <v>100</v>
       </c>
       <c r="E39" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F39">
         <v>1.8260000000000001</v>
       </c>
       <c r="G39" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
@@ -3184,22 +3894,22 @@
         <v>400011</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F40">
         <v>1.992</v>
       </c>
       <c r="G40" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3209,6 +3919,94 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FD43C0-D2C5-402C-8216-05AAB94F35BB}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="10.8984375" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>100000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>200000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>300000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0.1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0E628A-AEB6-44F8-A85B-244DB1802949}">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -3223,19 +4021,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -3476,6 +4274,176 @@
       </c>
       <c r="F13">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E5F96B-2521-42C3-A4B5-169E1C0F8BE8}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="13.69921875" customWidth="1"/>
+    <col min="3" max="3" width="12.296875" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="6.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1000000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2">
+        <v>0.85</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.08</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1000001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3">
+        <v>400</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3">
+        <v>0.85</v>
+      </c>
+      <c r="F3">
+        <v>99</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1000002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>999</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D19698-F73A-4D14-88A3-000067D912B1}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="13.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>300</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/01Table/DataTable.xlsx
+++ b/Assets/01Table/DataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksuw\Desktop\UnityProject\LuckyDeffense\Assets\01Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GameSW\Desktop\플\Lucky-deffense\Assets\01Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{318260A0-7485-4F54-97A1-DCE8DF35F02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA8E153B-8047-4767-B78D-7A09640724DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12816" firstSheet="1" activeTab="7" xr2:uid="{BEFBDC0E-DFDF-43AD-B3DF-DABD8844AFDA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{BEFBDC0E-DFDF-43AD-B3DF-DABD8844AFDA}"/>
   </bookViews>
   <sheets>
     <sheet name="UserData" sheetId="1" r:id="rId1"/>
@@ -795,9 +795,9 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -805,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -813,7 +813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -831,26 +831,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4608D715-15AC-4144-BEB6-96666BEFC447}">
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="7" max="7" width="11.3984375" customWidth="1"/>
-    <col min="8" max="8" width="12.09765625" customWidth="1"/>
-    <col min="9" max="9" width="7.8984375" customWidth="1"/>
-    <col min="10" max="10" width="20.19921875" customWidth="1"/>
-    <col min="11" max="11" width="11.69921875" customWidth="1"/>
-    <col min="12" max="12" width="11.59765625" customWidth="1"/>
-    <col min="13" max="13" width="11.3984375" customWidth="1"/>
-    <col min="14" max="14" width="10.59765625" customWidth="1"/>
-    <col min="15" max="15" width="10.796875" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="7.875" customWidth="1"/>
+    <col min="10" max="10" width="20.25" customWidth="1"/>
+    <col min="11" max="11" width="11.75" customWidth="1"/>
+    <col min="12" max="12" width="11.625" customWidth="1"/>
+    <col min="13" max="13" width="11.375" customWidth="1"/>
+    <col min="14" max="14" width="10.625" customWidth="1"/>
+    <col min="15" max="15" width="10.75" customWidth="1"/>
     <col min="20" max="20" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -909,7 +909,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>101</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>102</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>200</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>201</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>300</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>9</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -1266,6 +1266,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1277,20 +1278,20 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="11.3984375" customWidth="1"/>
-    <col min="8" max="9" width="7.8984375" customWidth="1"/>
-    <col min="10" max="10" width="15.69921875" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="9" width="7.875" customWidth="1"/>
+    <col min="10" max="10" width="15.75" customWidth="1"/>
     <col min="11" max="11" width="9.5" customWidth="1"/>
-    <col min="12" max="12" width="12.296875" customWidth="1"/>
-    <col min="13" max="13" width="11.19921875" customWidth="1"/>
-    <col min="14" max="14" width="10.296875" customWidth="1"/>
-    <col min="15" max="15" width="10.796875" customWidth="1"/>
-    <col min="16" max="16" width="11.69921875" customWidth="1"/>
+    <col min="12" max="12" width="12.25" customWidth="1"/>
+    <col min="13" max="13" width="11.25" customWidth="1"/>
+    <col min="14" max="14" width="10.25" customWidth="1"/>
+    <col min="15" max="15" width="10.75" customWidth="1"/>
+    <col min="16" max="16" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1349,7 +1350,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -1408,7 +1409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -1467,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -1526,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -1585,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -1644,7 +1645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -1703,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -1762,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -1821,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -1880,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -1939,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -1998,7 +1999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1011</v>
       </c>
@@ -2057,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1012</v>
       </c>
@@ -2116,7 +2117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1013</v>
       </c>
@@ -2175,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1014</v>
       </c>
@@ -2234,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1015</v>
       </c>
@@ -2293,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1016</v>
       </c>
@@ -2352,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1017</v>
       </c>
@@ -2411,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1018</v>
       </c>
@@ -2470,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1019</v>
       </c>
@@ -2543,15 +2544,15 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="12.796875" customWidth="1"/>
-    <col min="5" max="5" width="10.796875" customWidth="1"/>
-    <col min="6" max="6" width="14.09765625" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2571,7 +2572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -2591,7 +2592,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10001</v>
       </c>
@@ -2611,7 +2612,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10002</v>
       </c>
@@ -2631,7 +2632,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10003</v>
       </c>
@@ -2651,7 +2652,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10004</v>
       </c>
@@ -2671,7 +2672,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10005</v>
       </c>
@@ -2691,7 +2692,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10006</v>
       </c>
@@ -2711,7 +2712,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10007</v>
       </c>
@@ -2731,7 +2732,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10008</v>
       </c>
@@ -2751,7 +2752,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10009</v>
       </c>
@@ -2771,7 +2772,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10010</v>
       </c>
@@ -2791,7 +2792,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10011</v>
       </c>
@@ -2811,7 +2812,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10012</v>
       </c>
@@ -2831,7 +2832,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10013</v>
       </c>
@@ -2851,7 +2852,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10014</v>
       </c>
@@ -2871,7 +2872,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10015</v>
       </c>
@@ -2891,7 +2892,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10016</v>
       </c>
@@ -2911,7 +2912,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10017</v>
       </c>
@@ -2931,7 +2932,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10018</v>
       </c>
@@ -2951,7 +2952,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10019</v>
       </c>
@@ -2985,14 +2986,14 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="9.796875" customWidth="1"/>
-    <col min="6" max="6" width="17.796875" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3015,7 +3016,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100000</v>
       </c>
@@ -3038,7 +3039,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100001</v>
       </c>
@@ -3061,7 +3062,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>100002</v>
       </c>
@@ -3084,7 +3085,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>100003</v>
       </c>
@@ -3107,7 +3108,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100004</v>
       </c>
@@ -3130,7 +3131,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>100005</v>
       </c>
@@ -3153,7 +3154,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>100006</v>
       </c>
@@ -3176,7 +3177,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>100007</v>
       </c>
@@ -3199,7 +3200,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>100008</v>
       </c>
@@ -3222,7 +3223,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>100009</v>
       </c>
@@ -3245,7 +3246,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>100010</v>
       </c>
@@ -3268,7 +3269,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>100011</v>
       </c>
@@ -3291,7 +3292,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>100012</v>
       </c>
@@ -3314,7 +3315,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>200000</v>
       </c>
@@ -3337,7 +3338,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>200001</v>
       </c>
@@ -3360,7 +3361,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>200002</v>
       </c>
@@ -3383,7 +3384,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>200003</v>
       </c>
@@ -3406,7 +3407,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>200004</v>
       </c>
@@ -3429,7 +3430,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>200005</v>
       </c>
@@ -3452,7 +3453,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>200006</v>
       </c>
@@ -3475,7 +3476,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>200007</v>
       </c>
@@ -3498,7 +3499,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>200008</v>
       </c>
@@ -3521,7 +3522,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>200009</v>
       </c>
@@ -3544,7 +3545,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>200010</v>
       </c>
@@ -3567,7 +3568,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>200011</v>
       </c>
@@ -3590,7 +3591,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>200012</v>
       </c>
@@ -3613,7 +3614,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>300000</v>
       </c>
@@ -3636,7 +3637,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>400000</v>
       </c>
@@ -3659,7 +3660,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>400001</v>
       </c>
@@ -3682,7 +3683,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>400002</v>
       </c>
@@ -3705,7 +3706,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>400003</v>
       </c>
@@ -3728,7 +3729,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>400004</v>
       </c>
@@ -3751,7 +3752,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>400005</v>
       </c>
@@ -3774,7 +3775,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>400006</v>
       </c>
@@ -3797,7 +3798,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>400007</v>
       </c>
@@ -3820,7 +3821,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>400008</v>
       </c>
@@ -3843,7 +3844,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>400009</v>
       </c>
@@ -3866,7 +3867,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>400010</v>
       </c>
@@ -3889,7 +3890,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>400011</v>
       </c>
@@ -3926,13 +3927,13 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10.8984375" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3949,7 +3950,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100000</v>
       </c>
@@ -3966,7 +3967,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>200000</v>
       </c>
@@ -3983,7 +3984,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>300000</v>
       </c>
@@ -4014,9 +4015,9 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4036,7 +4037,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>400000</v>
       </c>
@@ -4056,7 +4057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>400001</v>
       </c>
@@ -4076,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>400002</v>
       </c>
@@ -4096,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>400003</v>
       </c>
@@ -4116,7 +4117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>400004</v>
       </c>
@@ -4136,7 +4137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>400005</v>
       </c>
@@ -4156,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>400006</v>
       </c>
@@ -4176,7 +4177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>400007</v>
       </c>
@@ -4196,7 +4197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>400008</v>
       </c>
@@ -4216,7 +4217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>400009</v>
       </c>
@@ -4236,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>400010</v>
       </c>
@@ -4256,7 +4257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>400011</v>
       </c>
@@ -4286,20 +4287,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E5F96B-2521-42C3-A4B5-169E1C0F8BE8}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.69921875" customWidth="1"/>
-    <col min="3" max="3" width="12.296875" customWidth="1"/>
-    <col min="4" max="4" width="14.59765625" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
     <col min="5" max="5" width="7.5" customWidth="1"/>
-    <col min="6" max="6" width="6.796875" customWidth="1"/>
+    <col min="6" max="6" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4325,7 +4326,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1000000</v>
       </c>
@@ -4351,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1000001</v>
       </c>
@@ -4377,7 +4378,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1000002</v>
       </c>
@@ -4417,12 +4418,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.296875" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>99</v>
       </c>
@@ -4430,7 +4431,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
@@ -4438,7 +4439,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>300</v>
       </c>

--- a/Assets/01Table/DataTable.xlsx
+++ b/Assets/01Table/DataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GameSW\Desktop\플\Lucky-deffense\Assets\01Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksuw\Desktop\UnityProject\LuckyDeffense\Assets\01Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA8E153B-8047-4767-B78D-7A09640724DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE6DF4B4-00BE-4286-9820-576532B54735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{BEFBDC0E-DFDF-43AD-B3DF-DABD8844AFDA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12816" firstSheet="1" activeTab="7" xr2:uid="{BEFBDC0E-DFDF-43AD-B3DF-DABD8844AFDA}"/>
   </bookViews>
   <sheets>
     <sheet name="UserData" sheetId="1" r:id="rId1"/>
@@ -795,9 +795,9 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -805,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -813,7 +813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -831,26 +831,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4608D715-15AC-4144-BEB6-96666BEFC447}">
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="7.875" customWidth="1"/>
-    <col min="10" max="10" width="20.25" customWidth="1"/>
-    <col min="11" max="11" width="11.75" customWidth="1"/>
-    <col min="12" max="12" width="11.625" customWidth="1"/>
-    <col min="13" max="13" width="11.375" customWidth="1"/>
-    <col min="14" max="14" width="10.625" customWidth="1"/>
-    <col min="15" max="15" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" customWidth="1"/>
+    <col min="8" max="8" width="12.09765625" customWidth="1"/>
+    <col min="9" max="9" width="7.8984375" customWidth="1"/>
+    <col min="10" max="10" width="20.19921875" customWidth="1"/>
+    <col min="11" max="11" width="11.69921875" customWidth="1"/>
+    <col min="12" max="12" width="11.59765625" customWidth="1"/>
+    <col min="13" max="13" width="11.3984375" customWidth="1"/>
+    <col min="14" max="14" width="10.59765625" customWidth="1"/>
+    <col min="15" max="15" width="10.69921875" customWidth="1"/>
     <col min="20" max="20" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -909,7 +909,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>100</v>
       </c>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>101</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>102</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>200</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>201</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>300</v>
       </c>
@@ -1278,20 +1278,20 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="9" width="7.875" customWidth="1"/>
-    <col min="10" max="10" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" customWidth="1"/>
+    <col min="8" max="9" width="7.8984375" customWidth="1"/>
+    <col min="10" max="10" width="15.69921875" customWidth="1"/>
     <col min="11" max="11" width="9.5" customWidth="1"/>
-    <col min="12" max="12" width="12.25" customWidth="1"/>
-    <col min="13" max="13" width="11.25" customWidth="1"/>
-    <col min="14" max="14" width="10.25" customWidth="1"/>
-    <col min="15" max="15" width="10.75" customWidth="1"/>
-    <col min="16" max="16" width="11.75" customWidth="1"/>
+    <col min="12" max="12" width="12.19921875" customWidth="1"/>
+    <col min="13" max="13" width="11.19921875" customWidth="1"/>
+    <col min="14" max="14" width="10.19921875" customWidth="1"/>
+    <col min="15" max="15" width="10.69921875" customWidth="1"/>
+    <col min="16" max="16" width="11.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1011</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1012</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1013</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1014</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1015</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1016</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1017</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1018</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1019</v>
       </c>
@@ -2544,15 +2544,15 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="12.69921875" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" customWidth="1"/>
+    <col min="6" max="6" width="14.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>10001</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>10002</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>10003</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>10004</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>10005</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>10006</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>10007</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>10008</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10009</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10010</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>10011</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>10012</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>10013</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>10014</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>10015</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>10016</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>10017</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>10018</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>10019</v>
       </c>
@@ -2986,14 +2986,14 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="9.69921875" customWidth="1"/>
+    <col min="6" max="6" width="17.69921875" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>100000</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>100001</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>100002</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>100003</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>100004</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>100005</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>100006</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>100007</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>100008</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>100009</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>100010</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>100011</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>100012</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>200000</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>200001</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>200002</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>200003</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>200004</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>200005</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>200006</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>200007</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>200008</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>200009</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>200010</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>200011</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>200012</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>300000</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>400000</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>400001</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>400002</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>400003</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>400004</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>400005</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>400006</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>400007</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>400008</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>400009</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>400010</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>400011</v>
       </c>
@@ -3927,13 +3927,13 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="10.8984375" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>100000</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>200000</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>300000</v>
       </c>
@@ -4015,9 +4015,9 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>400000</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>400001</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>400002</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>400003</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>400004</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>400005</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>400006</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>400007</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>400008</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>400009</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>400010</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>400011</v>
       </c>
@@ -4287,20 +4287,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E5F96B-2521-42C3-A4B5-169E1C0F8BE8}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="13.69921875" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" customWidth="1"/>
     <col min="5" max="5" width="7.5" customWidth="1"/>
-    <col min="6" max="6" width="6.75" customWidth="1"/>
+    <col min="6" max="6" width="6.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1000000</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>66</v>
       </c>
       <c r="E2">
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -4352,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1000001</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>66</v>
       </c>
       <c r="E3">
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
       <c r="F3">
         <v>99</v>
@@ -4378,7 +4378,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1000002</v>
       </c>
@@ -4392,16 +4392,16 @@
         <v>66</v>
       </c>
       <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>999</v>
-      </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -4418,12 +4418,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>99</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>100</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>300</v>
       </c>

--- a/Assets/01Table/DataTable.xlsx
+++ b/Assets/01Table/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksuw\Desktop\UnityProject\LuckyDeffense\Assets\01Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE6DF4B4-00BE-4286-9820-576532B54735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61270682-DBC5-49DA-9351-3795DF20620D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12816" firstSheet="1" activeTab="7" xr2:uid="{BEFBDC0E-DFDF-43AD-B3DF-DABD8844AFDA}"/>
   </bookViews>
@@ -4288,7 +4288,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4386,7 +4386,7 @@
         <v>98</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
         <v>66</v>
